--- a/prevalance_gig_economy.xlsx
+++ b/prevalance_gig_economy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Smith\Documents\Blessing and Curse\Employment\UNDP\Assignment 1\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan Smith\Documents\GIT\public_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D9CED7-ACBA-4CD6-9513-2C0D495CDD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F30741-9C69-4A81-88ED-BD1E07EE74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11532" yWindow="1728" windowWidth="12204" windowHeight="11328" xr2:uid="{80349B24-9E7F-4B00-ADCF-4D1B208DCF50}"/>
+    <workbookView minimized="1" xWindow="11880" yWindow="2076" windowWidth="12204" windowHeight="11328" xr2:uid="{80349B24-9E7F-4B00-ADCF-4D1B208DCF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1340,7 +1340,7 @@
         <v>66.540000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>52.99</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>50</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>46.85</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>58</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>62</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>43.69</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>37.99</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>28.16</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>100</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>102</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>108</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>20.27</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>111</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>10.79</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>122</v>
       </c>
